--- a/assets/private/example_availability.xlsx
+++ b/assets/private/example_availability.xlsx
@@ -372,7 +372,7 @@
         <v>20000.0</v>
       </c>
       <c r="E2" s="3">
-        <v>7.0E9</v>
+        <v>7000000.0</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
